--- a/Primera Entrega/Bitacora Lider Equipo .xlsx
+++ b/Primera Entrega/Bitacora Lider Equipo .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>METFOR</t>
   </si>
@@ -137,33 +137,21 @@
     <t>Se realizo reuñion del proceso de lanzamiento</t>
   </si>
   <si>
-    <t>3 minutos</t>
-  </si>
-  <si>
     <t>Se definio el nombre y lo del equipo</t>
   </si>
   <si>
-    <t>4 minutos</t>
-  </si>
-  <si>
     <t>Se definieron las reglas del equipo</t>
   </si>
   <si>
     <t>Se determinaron las reglas de toma de decisiones</t>
   </si>
   <si>
-    <t>2 minutos</t>
-  </si>
-  <si>
     <t>Se determino horario presencial como virtual</t>
   </si>
   <si>
     <t>Se definieron los objetivos y metricas del equipo</t>
   </si>
   <si>
-    <t>Se definieron los objeitovs de los miembros del equipo</t>
-  </si>
-  <si>
     <t>Se analizo y se determino los objetivos del lider del equipo</t>
   </si>
   <si>
@@ -177,6 +165,15 @@
   </si>
   <si>
     <t>BITACORA DE REGISTRO DE TIEMPOS</t>
+  </si>
+  <si>
+    <t>0 minutos</t>
+  </si>
+  <si>
+    <t>Se definieron los objetivos de los miembros del equipo</t>
+  </si>
+  <si>
+    <t>7 minutos</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1400,7 @@
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1442,7 @@
     <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1528,7 @@
         <v>0.20138888888888887</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>32</v>
@@ -1543,7 +1540,9 @@
         <v>35</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
@@ -1556,19 +1555,21 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="16"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
@@ -1581,19 +1582,21 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="16"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
@@ -1605,18 +1608,22 @@
       <c r="D19" s="19">
         <v>0.76388888888888884</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="F19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
@@ -1629,19 +1636,21 @@
         <v>0.68194444444444446</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
@@ -1654,19 +1663,21 @@
         <v>0.8125</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I21" s="16"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
@@ -1679,19 +1690,21 @@
         <v>0.82152777777777775</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I22" s="16"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
@@ -1703,18 +1716,22 @@
       <c r="D23" s="19">
         <v>0.85763888888888884</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="F23" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I23" s="16"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
@@ -1727,19 +1744,21 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I24" s="16"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
@@ -1751,7 +1770,9 @@
       <c r="D25" s="19">
         <v>0.94097222222222221</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="F25" s="16" t="s">
         <v>32</v>
       </c>
@@ -1759,10 +1780,12 @@
         <v>33</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I25" s="16"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>

--- a/Primera Entrega/Bitacora Lider Equipo .xlsx
+++ b/Primera Entrega/Bitacora Lider Equipo .xlsx
@@ -1400,7 +1400,7 @@
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,10 +1522,10 @@
         <v>43133</v>
       </c>
       <c r="C16" s="19">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="D16" s="19">
-        <v>0.20138888888888887</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>46</v>
@@ -1579,7 +1579,7 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D18" s="19">
-        <v>0.76388888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>46</v>
@@ -1606,7 +1606,7 @@
         <v>0.75</v>
       </c>
       <c r="D19" s="19">
-        <v>0.76388888888888884</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>46</v>
@@ -1633,7 +1633,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="D20" s="19">
-        <v>0.68194444444444446</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>46</v>
@@ -1660,7 +1660,7 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="D21" s="19">
-        <v>0.8125</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>46</v>
@@ -1687,7 +1687,7 @@
         <v>0.8125</v>
       </c>
       <c r="D22" s="19">
-        <v>0.82152777777777775</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>46</v>
@@ -1714,7 +1714,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="D23" s="19">
-        <v>0.85763888888888884</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>48</v>
@@ -1741,7 +1741,7 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="D24" s="19">
-        <v>0.87152777777777779</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>46</v>
@@ -1768,7 +1768,7 @@
         <v>0.9375</v>
       </c>
       <c r="D25" s="19">
-        <v>0.94097222222222221</v>
+        <v>0.95486111111111116</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>46</v>

--- a/Primera Entrega/Bitacora Lider Equipo .xlsx
+++ b/Primera Entrega/Bitacora Lider Equipo .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>METFOR</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Se realizo reuñion del proceso de lanzamiento</t>
   </si>
   <si>
-    <t>Se definio el nombre y lo del equipo</t>
-  </si>
-  <si>
     <t>Se definieron las reglas del equipo</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>7 minutos</t>
+  </si>
+  <si>
+    <t>Se definio el nombre y logo del equipo</t>
+  </si>
+  <si>
+    <t>Se determino los roles de cada integrante</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1091,54 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11855824" y="4146177"/>
+          <a:ext cx="224118" cy="224118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="224118" cy="224118"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Gráfico 12" descr="Marca de verificación">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CF6653-AF72-4D88-84B5-3844743FA963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11844617" y="4347882"/>
           <a:ext cx="224118" cy="224118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1400,7 +1451,7 @@
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1493,7 @@
     <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1579,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>32</v>
@@ -1561,10 +1612,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="8">
@@ -1582,16 +1633,16 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>37</v>
+      <c r="G18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="8">
@@ -1600,25 +1651,25 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="C19" s="19">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="D19" s="19">
-        <v>0.77083333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="8">
@@ -1627,25 +1678,25 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="C20" s="19">
-        <v>0.67361111111111116</v>
+        <v>0.75</v>
       </c>
       <c r="D20" s="19">
-        <v>0.69444444444444453</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="8">
@@ -1654,25 +1705,25 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="C21" s="19">
-        <v>0.79861111111111116</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D21" s="19">
-        <v>0.81944444444444453</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="8">
@@ -1684,22 +1735,22 @@
         <v>43137</v>
       </c>
       <c r="C22" s="19">
-        <v>0.8125</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="D22" s="19">
-        <v>0.75</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="8">
@@ -1711,22 +1762,22 @@
         <v>43137</v>
       </c>
       <c r="C23" s="19">
-        <v>0.84722222222222221</v>
+        <v>0.8125</v>
       </c>
       <c r="D23" s="19">
-        <v>0.87152777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="8">
@@ -1738,22 +1789,22 @@
         <v>43137</v>
       </c>
       <c r="C24" s="19">
-        <v>0.85763888888888884</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="D24" s="19">
-        <v>0.87847222222222221</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="8">
@@ -1765,22 +1816,22 @@
         <v>43137</v>
       </c>
       <c r="C25" s="19">
-        <v>0.9375</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="D25" s="19">
-        <v>0.95486111111111116</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="8">
@@ -1788,15 +1839,31 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="B26" s="18">
+        <v>43137</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0.9375</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="I26" s="16"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
